--- a/Andrew-annotations/HAE_Q4_2014.xlsx
+++ b/Andrew-annotations/HAE_Q4_2014.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Desktop\School\College\Fall 2023\VIP 3602\SubjECTive-QA\Andrew-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33924A01-846D-4705-9EA7-D70CBEB8A61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61FD1A-8890-426B-8F8C-7ECF742AA2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:J28"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="89" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -697,10 +697,10 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -764,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="360" x14ac:dyDescent="0.3">
@@ -790,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -825,16 +825,16 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -886,13 +886,13 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -927,7 +927,7 @@
         <v>2</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1011,7 +1011,7 @@
         <v>39</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1023,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1046,16 +1046,16 @@
         <v>2</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1084,10 +1084,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1107,7 +1107,7 @@
         <v>43</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1177,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1235,7 +1235,7 @@
         <v>52</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1346,7 +1346,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="288" x14ac:dyDescent="0.3">
@@ -1363,19 +1363,19 @@
         <v>62</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1395,22 +1395,22 @@
         <v>64</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="374.4" x14ac:dyDescent="0.3">
@@ -1433,13 +1433,13 @@
         <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1465,13 +1465,13 @@
         <v>2</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1491,22 +1491,22 @@
         <v>70</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
